--- a/Stimuli/Ret_sheet.xlsx
+++ b/Stimuli/Ret_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewdougherty/Desktop/Projects/RetGoals_Git/Stimuli/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219CC399-0954-F943-BA56-9FC1F198332C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43AAF83-B71B-A64E-94D2-04E66BDFF2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="-1740" windowWidth="29400" windowHeight="17260" xr2:uid="{AE116F29-E1B2-A249-90C3-6B1986F272EB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29400" windowHeight="17260" xr2:uid="{AE116F29-E1B2-A249-90C3-6B1986F272EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="612">
   <si>
     <t>enc_stimname</t>
   </si>
@@ -1857,6 +1857,21 @@
   </si>
   <si>
     <t>1_279.jpg</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>Retrieval</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>u</t>
   </si>
 </sst>
 </file>
@@ -2236,10 +2251,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E86D4DCE-DB13-064E-9582-805A760B3661}">
-  <dimension ref="A1:D301"/>
+  <dimension ref="A1:E301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
-      <selection activeCell="B281" sqref="B281"/>
+    <sheetView tabSelected="1" topLeftCell="A257" zoomScale="119" workbookViewId="0">
+      <selection activeCell="D268" sqref="D268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2247,7 +2262,7 @@
     <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2260,8 +2275,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2271,11 +2289,14 @@
       <c r="C2" t="s">
         <v>140</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>609</v>
+      </c>
+      <c r="E2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2285,11 +2306,14 @@
       <c r="C3" t="s">
         <v>140</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>609</v>
+      </c>
+      <c r="E3" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2299,11 +2323,14 @@
       <c r="C4" t="s">
         <v>140</v>
       </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E4" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2313,11 +2340,14 @@
       <c r="C5" t="s">
         <v>140</v>
       </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>609</v>
+      </c>
+      <c r="E5" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2327,11 +2357,14 @@
       <c r="C6" t="s">
         <v>140</v>
       </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>609</v>
+      </c>
+      <c r="E6" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -2341,11 +2374,14 @@
       <c r="C7" t="s">
         <v>140</v>
       </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>609</v>
+      </c>
+      <c r="E7" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -2355,11 +2391,14 @@
       <c r="C8" t="s">
         <v>140</v>
       </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>609</v>
+      </c>
+      <c r="E8" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2369,11 +2408,14 @@
       <c r="C9" t="s">
         <v>140</v>
       </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>609</v>
+      </c>
+      <c r="E9" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -2383,11 +2425,14 @@
       <c r="C10" t="s">
         <v>140</v>
       </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>609</v>
+      </c>
+      <c r="E10" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -2397,11 +2442,14 @@
       <c r="C11" t="s">
         <v>140</v>
       </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>609</v>
+      </c>
+      <c r="E11" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -2411,11 +2459,14 @@
       <c r="C12" t="s">
         <v>140</v>
       </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>609</v>
+      </c>
+      <c r="E12" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -2425,11 +2476,14 @@
       <c r="C13" t="s">
         <v>140</v>
       </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>609</v>
+      </c>
+      <c r="E13" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -2439,11 +2493,14 @@
       <c r="C14" t="s">
         <v>140</v>
       </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>609</v>
+      </c>
+      <c r="E14" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -2453,11 +2510,14 @@
       <c r="C15" t="s">
         <v>140</v>
       </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>609</v>
+      </c>
+      <c r="E15" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -2467,11 +2527,14 @@
       <c r="C16" t="s">
         <v>140</v>
       </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>609</v>
+      </c>
+      <c r="E16" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -2481,11 +2544,14 @@
       <c r="C17" t="s">
         <v>140</v>
       </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>609</v>
+      </c>
+      <c r="E17" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -2495,11 +2561,14 @@
       <c r="C18" t="s">
         <v>140</v>
       </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>609</v>
+      </c>
+      <c r="E18" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -2509,11 +2578,14 @@
       <c r="C19" t="s">
         <v>140</v>
       </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>609</v>
+      </c>
+      <c r="E19" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -2523,11 +2595,14 @@
       <c r="C20" t="s">
         <v>140</v>
       </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>609</v>
+      </c>
+      <c r="E20" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -2537,11 +2612,14 @@
       <c r="C21" t="s">
         <v>140</v>
       </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>609</v>
+      </c>
+      <c r="E21" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -2551,11 +2629,14 @@
       <c r="C22" t="s">
         <v>140</v>
       </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>609</v>
+      </c>
+      <c r="E22" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -2565,11 +2646,14 @@
       <c r="C23" t="s">
         <v>140</v>
       </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>609</v>
+      </c>
+      <c r="E23" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -2579,11 +2663,14 @@
       <c r="C24" t="s">
         <v>140</v>
       </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>609</v>
+      </c>
+      <c r="E24" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -2593,11 +2680,14 @@
       <c r="C25" t="s">
         <v>140</v>
       </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>609</v>
+      </c>
+      <c r="E25" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -2607,11 +2697,14 @@
       <c r="C26" t="s">
         <v>140</v>
       </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>609</v>
+      </c>
+      <c r="E26" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -2621,11 +2714,14 @@
       <c r="C27" t="s">
         <v>140</v>
       </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>609</v>
+      </c>
+      <c r="E27" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>57</v>
       </c>
@@ -2635,11 +2731,14 @@
       <c r="C28" t="s">
         <v>140</v>
       </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>609</v>
+      </c>
+      <c r="E28" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>59</v>
       </c>
@@ -2649,11 +2748,14 @@
       <c r="C29" t="s">
         <v>140</v>
       </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>609</v>
+      </c>
+      <c r="E29" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -2663,11 +2765,14 @@
       <c r="C30" t="s">
         <v>140</v>
       </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>609</v>
+      </c>
+      <c r="E30" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>63</v>
       </c>
@@ -2677,11 +2782,14 @@
       <c r="C31" t="s">
         <v>140</v>
       </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>609</v>
+      </c>
+      <c r="E31" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -2691,11 +2799,14 @@
       <c r="C32" t="s">
         <v>140</v>
       </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>609</v>
+      </c>
+      <c r="E32" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>67</v>
       </c>
@@ -2705,11 +2816,14 @@
       <c r="C33" t="s">
         <v>140</v>
       </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>609</v>
+      </c>
+      <c r="E33" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>69</v>
       </c>
@@ -2719,11 +2833,14 @@
       <c r="C34" t="s">
         <v>71</v>
       </c>
-      <c r="D34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>610</v>
+      </c>
+      <c r="E34" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>72</v>
       </c>
@@ -2733,11 +2850,14 @@
       <c r="C35" t="s">
         <v>71</v>
       </c>
-      <c r="D35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>610</v>
+      </c>
+      <c r="E35" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>74</v>
       </c>
@@ -2747,11 +2867,14 @@
       <c r="C36" t="s">
         <v>71</v>
       </c>
-      <c r="D36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>610</v>
+      </c>
+      <c r="E36" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -2761,11 +2884,14 @@
       <c r="C37" t="s">
         <v>71</v>
       </c>
-      <c r="D37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>610</v>
+      </c>
+      <c r="E37" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>78</v>
       </c>
@@ -2775,11 +2901,14 @@
       <c r="C38" t="s">
         <v>71</v>
       </c>
-      <c r="D38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>610</v>
+      </c>
+      <c r="E38" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>80</v>
       </c>
@@ -2789,11 +2918,14 @@
       <c r="C39" t="s">
         <v>71</v>
       </c>
-      <c r="D39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>610</v>
+      </c>
+      <c r="E39" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>82</v>
       </c>
@@ -2803,11 +2935,14 @@
       <c r="C40" t="s">
         <v>71</v>
       </c>
-      <c r="D40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>610</v>
+      </c>
+      <c r="E40" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>84</v>
       </c>
@@ -2817,11 +2952,14 @@
       <c r="C41" t="s">
         <v>71</v>
       </c>
-      <c r="D41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>610</v>
+      </c>
+      <c r="E41" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>86</v>
       </c>
@@ -2831,11 +2969,14 @@
       <c r="C42" t="s">
         <v>71</v>
       </c>
-      <c r="D42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>610</v>
+      </c>
+      <c r="E42" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>88</v>
       </c>
@@ -2845,11 +2986,14 @@
       <c r="C43" t="s">
         <v>71</v>
       </c>
-      <c r="D43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>610</v>
+      </c>
+      <c r="E43" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>90</v>
       </c>
@@ -2859,11 +3003,14 @@
       <c r="C44" t="s">
         <v>71</v>
       </c>
-      <c r="D44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>610</v>
+      </c>
+      <c r="E44" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>92</v>
       </c>
@@ -2873,11 +3020,14 @@
       <c r="C45" t="s">
         <v>71</v>
       </c>
-      <c r="D45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>610</v>
+      </c>
+      <c r="E45" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>94</v>
       </c>
@@ -2887,11 +3037,14 @@
       <c r="C46" t="s">
         <v>71</v>
       </c>
-      <c r="D46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>610</v>
+      </c>
+      <c r="E46" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>96</v>
       </c>
@@ -2901,11 +3054,14 @@
       <c r="C47" t="s">
         <v>71</v>
       </c>
-      <c r="D47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>610</v>
+      </c>
+      <c r="E47" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>98</v>
       </c>
@@ -2915,11 +3071,14 @@
       <c r="C48" t="s">
         <v>71</v>
       </c>
-      <c r="D48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>610</v>
+      </c>
+      <c r="E48" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>100</v>
       </c>
@@ -2929,11 +3088,14 @@
       <c r="C49" t="s">
         <v>71</v>
       </c>
-      <c r="D49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>610</v>
+      </c>
+      <c r="E49" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>102</v>
       </c>
@@ -2943,11 +3105,14 @@
       <c r="C50" t="s">
         <v>71</v>
       </c>
-      <c r="D50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>610</v>
+      </c>
+      <c r="E50" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>104</v>
       </c>
@@ -2957,11 +3122,14 @@
       <c r="C51" t="s">
         <v>71</v>
       </c>
-      <c r="D51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>610</v>
+      </c>
+      <c r="E51" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>106</v>
       </c>
@@ -2971,11 +3139,14 @@
       <c r="C52" t="s">
         <v>71</v>
       </c>
-      <c r="D52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>610</v>
+      </c>
+      <c r="E52" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>108</v>
       </c>
@@ -2985,11 +3156,14 @@
       <c r="C53" t="s">
         <v>71</v>
       </c>
-      <c r="D53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
+        <v>610</v>
+      </c>
+      <c r="E53" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>110</v>
       </c>
@@ -2999,11 +3173,14 @@
       <c r="C54" t="s">
         <v>71</v>
       </c>
-      <c r="D54">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>610</v>
+      </c>
+      <c r="E54" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>112</v>
       </c>
@@ -3013,11 +3190,14 @@
       <c r="C55" t="s">
         <v>71</v>
       </c>
-      <c r="D55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>610</v>
+      </c>
+      <c r="E55" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>114</v>
       </c>
@@ -3027,11 +3207,14 @@
       <c r="C56" t="s">
         <v>71</v>
       </c>
-      <c r="D56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>610</v>
+      </c>
+      <c r="E56" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>116</v>
       </c>
@@ -3041,11 +3224,14 @@
       <c r="C57" t="s">
         <v>71</v>
       </c>
-      <c r="D57">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
+        <v>610</v>
+      </c>
+      <c r="E57" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>118</v>
       </c>
@@ -3055,11 +3241,14 @@
       <c r="C58" t="s">
         <v>71</v>
       </c>
-      <c r="D58">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
+        <v>610</v>
+      </c>
+      <c r="E58" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>120</v>
       </c>
@@ -3069,11 +3258,14 @@
       <c r="C59" t="s">
         <v>71</v>
       </c>
-      <c r="D59">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
+        <v>610</v>
+      </c>
+      <c r="E59" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>122</v>
       </c>
@@ -3083,11 +3275,14 @@
       <c r="C60" t="s">
         <v>71</v>
       </c>
-      <c r="D60">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>610</v>
+      </c>
+      <c r="E60" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>124</v>
       </c>
@@ -3097,11 +3292,14 @@
       <c r="C61" t="s">
         <v>71</v>
       </c>
-      <c r="D61">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
+        <v>610</v>
+      </c>
+      <c r="E61" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>126</v>
       </c>
@@ -3111,11 +3309,14 @@
       <c r="C62" t="s">
         <v>71</v>
       </c>
-      <c r="D62">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
+        <v>610</v>
+      </c>
+      <c r="E62" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>128</v>
       </c>
@@ -3125,11 +3326,14 @@
       <c r="C63" t="s">
         <v>71</v>
       </c>
-      <c r="D63">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D63" t="s">
+        <v>610</v>
+      </c>
+      <c r="E63" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>130</v>
       </c>
@@ -3139,11 +3343,14 @@
       <c r="C64" t="s">
         <v>71</v>
       </c>
-      <c r="D64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D64" t="s">
+        <v>610</v>
+      </c>
+      <c r="E64" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>132</v>
       </c>
@@ -3153,11 +3360,14 @@
       <c r="C65" t="s">
         <v>71</v>
       </c>
-      <c r="D65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D65" t="s">
+        <v>610</v>
+      </c>
+      <c r="E65" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>134</v>
       </c>
@@ -3167,11 +3377,14 @@
       <c r="C66" t="s">
         <v>71</v>
       </c>
-      <c r="D66">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D66" t="s">
+        <v>610</v>
+      </c>
+      <c r="E66" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>136</v>
       </c>
@@ -3181,11 +3394,14 @@
       <c r="C67" t="s">
         <v>71</v>
       </c>
-      <c r="D67">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D67" t="s">
+        <v>610</v>
+      </c>
+      <c r="E67" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>138</v>
       </c>
@@ -3195,11 +3411,14 @@
       <c r="C68" t="s">
         <v>6</v>
       </c>
-      <c r="D68">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
+        <v>611</v>
+      </c>
+      <c r="E68" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>141</v>
       </c>
@@ -3209,11 +3428,14 @@
       <c r="C69" t="s">
         <v>6</v>
       </c>
-      <c r="D69">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D69" t="s">
+        <v>611</v>
+      </c>
+      <c r="E69" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>143</v>
       </c>
@@ -3223,11 +3445,14 @@
       <c r="C70" t="s">
         <v>6</v>
       </c>
-      <c r="D70">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D70" t="s">
+        <v>611</v>
+      </c>
+      <c r="E70" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>145</v>
       </c>
@@ -3237,11 +3462,14 @@
       <c r="C71" t="s">
         <v>6</v>
       </c>
-      <c r="D71">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D71" t="s">
+        <v>611</v>
+      </c>
+      <c r="E71" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>147</v>
       </c>
@@ -3251,11 +3479,14 @@
       <c r="C72" t="s">
         <v>6</v>
       </c>
-      <c r="D72">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D72" t="s">
+        <v>611</v>
+      </c>
+      <c r="E72" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>149</v>
       </c>
@@ -3265,11 +3496,14 @@
       <c r="C73" t="s">
         <v>6</v>
       </c>
-      <c r="D73">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D73" t="s">
+        <v>611</v>
+      </c>
+      <c r="E73" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>151</v>
       </c>
@@ -3279,11 +3513,14 @@
       <c r="C74" t="s">
         <v>6</v>
       </c>
-      <c r="D74">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D74" t="s">
+        <v>611</v>
+      </c>
+      <c r="E74" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>153</v>
       </c>
@@ -3293,11 +3530,14 @@
       <c r="C75" t="s">
         <v>6</v>
       </c>
-      <c r="D75">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D75" t="s">
+        <v>611</v>
+      </c>
+      <c r="E75" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>155</v>
       </c>
@@ -3307,11 +3547,14 @@
       <c r="C76" t="s">
         <v>6</v>
       </c>
-      <c r="D76">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D76" t="s">
+        <v>611</v>
+      </c>
+      <c r="E76" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>157</v>
       </c>
@@ -3321,11 +3564,14 @@
       <c r="C77" t="s">
         <v>6</v>
       </c>
-      <c r="D77">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D77" t="s">
+        <v>611</v>
+      </c>
+      <c r="E77" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>159</v>
       </c>
@@ -3335,11 +3581,14 @@
       <c r="C78" t="s">
         <v>6</v>
       </c>
-      <c r="D78">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D78" t="s">
+        <v>611</v>
+      </c>
+      <c r="E78" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>161</v>
       </c>
@@ -3349,11 +3598,14 @@
       <c r="C79" t="s">
         <v>6</v>
       </c>
-      <c r="D79">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D79" t="s">
+        <v>611</v>
+      </c>
+      <c r="E79" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>163</v>
       </c>
@@ -3363,11 +3615,14 @@
       <c r="C80" t="s">
         <v>6</v>
       </c>
-      <c r="D80">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D80" t="s">
+        <v>611</v>
+      </c>
+      <c r="E80" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>165</v>
       </c>
@@ -3377,11 +3632,14 @@
       <c r="C81" t="s">
         <v>6</v>
       </c>
-      <c r="D81">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D81" t="s">
+        <v>611</v>
+      </c>
+      <c r="E81" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>167</v>
       </c>
@@ -3391,11 +3649,14 @@
       <c r="C82" t="s">
         <v>6</v>
       </c>
-      <c r="D82">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D82" t="s">
+        <v>611</v>
+      </c>
+      <c r="E82" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>169</v>
       </c>
@@ -3405,11 +3666,14 @@
       <c r="C83" t="s">
         <v>6</v>
       </c>
-      <c r="D83">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D83" t="s">
+        <v>611</v>
+      </c>
+      <c r="E83" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>171</v>
       </c>
@@ -3419,11 +3683,14 @@
       <c r="C84" t="s">
         <v>6</v>
       </c>
-      <c r="D84">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D84" t="s">
+        <v>611</v>
+      </c>
+      <c r="E84" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>173</v>
       </c>
@@ -3433,11 +3700,14 @@
       <c r="C85" t="s">
         <v>6</v>
       </c>
-      <c r="D85">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D85" t="s">
+        <v>611</v>
+      </c>
+      <c r="E85" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>175</v>
       </c>
@@ -3447,11 +3717,14 @@
       <c r="C86" t="s">
         <v>6</v>
       </c>
-      <c r="D86">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D86" t="s">
+        <v>611</v>
+      </c>
+      <c r="E86" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>177</v>
       </c>
@@ -3461,11 +3734,14 @@
       <c r="C87" t="s">
         <v>6</v>
       </c>
-      <c r="D87">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D87" t="s">
+        <v>611</v>
+      </c>
+      <c r="E87" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>179</v>
       </c>
@@ -3475,11 +3751,14 @@
       <c r="C88" t="s">
         <v>6</v>
       </c>
-      <c r="D88">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D88" t="s">
+        <v>611</v>
+      </c>
+      <c r="E88" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>181</v>
       </c>
@@ -3489,11 +3768,14 @@
       <c r="C89" t="s">
         <v>6</v>
       </c>
-      <c r="D89">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D89" t="s">
+        <v>611</v>
+      </c>
+      <c r="E89" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>183</v>
       </c>
@@ -3503,11 +3785,14 @@
       <c r="C90" t="s">
         <v>6</v>
       </c>
-      <c r="D90">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D90" t="s">
+        <v>611</v>
+      </c>
+      <c r="E90" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>185</v>
       </c>
@@ -3517,11 +3802,14 @@
       <c r="C91" t="s">
         <v>6</v>
       </c>
-      <c r="D91">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D91" t="s">
+        <v>611</v>
+      </c>
+      <c r="E91" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>187</v>
       </c>
@@ -3531,11 +3819,14 @@
       <c r="C92" t="s">
         <v>6</v>
       </c>
-      <c r="D92">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D92" t="s">
+        <v>611</v>
+      </c>
+      <c r="E92" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>189</v>
       </c>
@@ -3545,11 +3836,14 @@
       <c r="C93" t="s">
         <v>6</v>
       </c>
-      <c r="D93">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D93" t="s">
+        <v>611</v>
+      </c>
+      <c r="E93" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>191</v>
       </c>
@@ -3559,11 +3853,14 @@
       <c r="C94" t="s">
         <v>6</v>
       </c>
-      <c r="D94">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D94" t="s">
+        <v>611</v>
+      </c>
+      <c r="E94" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>193</v>
       </c>
@@ -3573,11 +3870,14 @@
       <c r="C95" t="s">
         <v>6</v>
       </c>
-      <c r="D95">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D95" t="s">
+        <v>611</v>
+      </c>
+      <c r="E95" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>195</v>
       </c>
@@ -3587,11 +3887,14 @@
       <c r="C96" t="s">
         <v>6</v>
       </c>
-      <c r="D96">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D96" t="s">
+        <v>611</v>
+      </c>
+      <c r="E96" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>197</v>
       </c>
@@ -3601,11 +3904,14 @@
       <c r="C97" t="s">
         <v>6</v>
       </c>
-      <c r="D97">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D97" t="s">
+        <v>611</v>
+      </c>
+      <c r="E97" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>199</v>
       </c>
@@ -3615,11 +3921,14 @@
       <c r="C98" t="s">
         <v>6</v>
       </c>
-      <c r="D98">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D98" t="s">
+        <v>611</v>
+      </c>
+      <c r="E98" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>201</v>
       </c>
@@ -3629,11 +3938,14 @@
       <c r="C99" t="s">
         <v>6</v>
       </c>
-      <c r="D99">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D99" t="s">
+        <v>611</v>
+      </c>
+      <c r="E99" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>203</v>
       </c>
@@ -3643,11 +3955,14 @@
       <c r="C100" t="s">
         <v>6</v>
       </c>
-      <c r="D100">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D100" t="s">
+        <v>611</v>
+      </c>
+      <c r="E100" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>205</v>
       </c>
@@ -3657,11 +3972,14 @@
       <c r="C101" t="s">
         <v>6</v>
       </c>
-      <c r="D101">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D101" t="s">
+        <v>611</v>
+      </c>
+      <c r="E101" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>207</v>
       </c>
@@ -3671,11 +3989,14 @@
       <c r="C102" t="s">
         <v>140</v>
       </c>
-      <c r="D102">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D102" t="s">
+        <v>609</v>
+      </c>
+      <c r="E102" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>209</v>
       </c>
@@ -3685,11 +4006,14 @@
       <c r="C103" t="s">
         <v>140</v>
       </c>
-      <c r="D103">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D103" t="s">
+        <v>609</v>
+      </c>
+      <c r="E103" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>211</v>
       </c>
@@ -3699,11 +4023,14 @@
       <c r="C104" t="s">
         <v>140</v>
       </c>
-      <c r="D104">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D104" t="s">
+        <v>609</v>
+      </c>
+      <c r="E104" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>213</v>
       </c>
@@ -3713,11 +4040,14 @@
       <c r="C105" t="s">
         <v>140</v>
       </c>
-      <c r="D105">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D105" t="s">
+        <v>609</v>
+      </c>
+      <c r="E105" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>215</v>
       </c>
@@ -3727,11 +4057,14 @@
       <c r="C106" t="s">
         <v>140</v>
       </c>
-      <c r="D106">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D106" t="s">
+        <v>609</v>
+      </c>
+      <c r="E106" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>217</v>
       </c>
@@ -3741,11 +4074,14 @@
       <c r="C107" t="s">
         <v>140</v>
       </c>
-      <c r="D107">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D107" t="s">
+        <v>609</v>
+      </c>
+      <c r="E107" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>219</v>
       </c>
@@ -3755,11 +4091,14 @@
       <c r="C108" t="s">
         <v>140</v>
       </c>
-      <c r="D108">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D108" t="s">
+        <v>609</v>
+      </c>
+      <c r="E108" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>221</v>
       </c>
@@ -3769,11 +4108,14 @@
       <c r="C109" t="s">
         <v>140</v>
       </c>
-      <c r="D109">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D109" t="s">
+        <v>609</v>
+      </c>
+      <c r="E109" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>223</v>
       </c>
@@ -3783,11 +4125,14 @@
       <c r="C110" t="s">
         <v>140</v>
       </c>
-      <c r="D110">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D110" t="s">
+        <v>609</v>
+      </c>
+      <c r="E110" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>225</v>
       </c>
@@ -3797,11 +4142,14 @@
       <c r="C111" t="s">
         <v>140</v>
       </c>
-      <c r="D111">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D111" t="s">
+        <v>609</v>
+      </c>
+      <c r="E111" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>227</v>
       </c>
@@ -3811,11 +4159,14 @@
       <c r="C112" t="s">
         <v>140</v>
       </c>
-      <c r="D112">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D112" t="s">
+        <v>609</v>
+      </c>
+      <c r="E112" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>229</v>
       </c>
@@ -3825,11 +4176,14 @@
       <c r="C113" t="s">
         <v>140</v>
       </c>
-      <c r="D113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D113" t="s">
+        <v>609</v>
+      </c>
+      <c r="E113" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>231</v>
       </c>
@@ -3839,11 +4193,14 @@
       <c r="C114" t="s">
         <v>140</v>
       </c>
-      <c r="D114">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D114" t="s">
+        <v>609</v>
+      </c>
+      <c r="E114" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>233</v>
       </c>
@@ -3853,11 +4210,14 @@
       <c r="C115" t="s">
         <v>140</v>
       </c>
-      <c r="D115">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D115" t="s">
+        <v>609</v>
+      </c>
+      <c r="E115" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>235</v>
       </c>
@@ -3867,11 +4227,14 @@
       <c r="C116" t="s">
         <v>140</v>
       </c>
-      <c r="D116">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D116" t="s">
+        <v>609</v>
+      </c>
+      <c r="E116" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>237</v>
       </c>
@@ -3881,11 +4244,14 @@
       <c r="C117" t="s">
         <v>140</v>
       </c>
-      <c r="D117">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D117" t="s">
+        <v>609</v>
+      </c>
+      <c r="E117" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>239</v>
       </c>
@@ -3895,11 +4261,14 @@
       <c r="C118" t="s">
         <v>140</v>
       </c>
-      <c r="D118">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D118" t="s">
+        <v>609</v>
+      </c>
+      <c r="E118" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>241</v>
       </c>
@@ -3909,11 +4278,14 @@
       <c r="C119" t="s">
         <v>140</v>
       </c>
-      <c r="D119">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D119" t="s">
+        <v>609</v>
+      </c>
+      <c r="E119" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>243</v>
       </c>
@@ -3923,11 +4295,14 @@
       <c r="C120" t="s">
         <v>140</v>
       </c>
-      <c r="D120">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D120" t="s">
+        <v>609</v>
+      </c>
+      <c r="E120" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>245</v>
       </c>
@@ -3937,11 +4312,14 @@
       <c r="C121" t="s">
         <v>140</v>
       </c>
-      <c r="D121">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D121" t="s">
+        <v>609</v>
+      </c>
+      <c r="E121" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>247</v>
       </c>
@@ -3951,11 +4329,14 @@
       <c r="C122" t="s">
         <v>140</v>
       </c>
-      <c r="D122">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D122" t="s">
+        <v>609</v>
+      </c>
+      <c r="E122" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>249</v>
       </c>
@@ -3965,11 +4346,14 @@
       <c r="C123" t="s">
         <v>140</v>
       </c>
-      <c r="D123">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D123" t="s">
+        <v>609</v>
+      </c>
+      <c r="E123" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>251</v>
       </c>
@@ -3979,11 +4363,14 @@
       <c r="C124" t="s">
         <v>140</v>
       </c>
-      <c r="D124">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D124" t="s">
+        <v>609</v>
+      </c>
+      <c r="E124" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>253</v>
       </c>
@@ -3993,11 +4380,14 @@
       <c r="C125" t="s">
         <v>140</v>
       </c>
-      <c r="D125">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D125" t="s">
+        <v>609</v>
+      </c>
+      <c r="E125" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>255</v>
       </c>
@@ -4007,11 +4397,14 @@
       <c r="C126" t="s">
         <v>140</v>
       </c>
-      <c r="D126">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D126" t="s">
+        <v>609</v>
+      </c>
+      <c r="E126" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>257</v>
       </c>
@@ -4021,11 +4414,14 @@
       <c r="C127" t="s">
         <v>140</v>
       </c>
-      <c r="D127">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D127" t="s">
+        <v>609</v>
+      </c>
+      <c r="E127" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>259</v>
       </c>
@@ -4035,11 +4431,14 @@
       <c r="C128" t="s">
         <v>140</v>
       </c>
-      <c r="D128">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D128" t="s">
+        <v>609</v>
+      </c>
+      <c r="E128" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>261</v>
       </c>
@@ -4049,11 +4448,14 @@
       <c r="C129" t="s">
         <v>140</v>
       </c>
-      <c r="D129">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D129" t="s">
+        <v>609</v>
+      </c>
+      <c r="E129" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>263</v>
       </c>
@@ -4063,11 +4465,14 @@
       <c r="C130" t="s">
         <v>140</v>
       </c>
-      <c r="D130">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D130" t="s">
+        <v>609</v>
+      </c>
+      <c r="E130" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>265</v>
       </c>
@@ -4077,11 +4482,14 @@
       <c r="C131" t="s">
         <v>140</v>
       </c>
-      <c r="D131">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D131" t="s">
+        <v>609</v>
+      </c>
+      <c r="E131" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>267</v>
       </c>
@@ -4091,11 +4499,14 @@
       <c r="C132" t="s">
         <v>140</v>
       </c>
-      <c r="D132">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D132" t="s">
+        <v>609</v>
+      </c>
+      <c r="E132" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>269</v>
       </c>
@@ -4105,11 +4516,14 @@
       <c r="C133" t="s">
         <v>140</v>
       </c>
-      <c r="D133">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D133" t="s">
+        <v>609</v>
+      </c>
+      <c r="E133" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>271</v>
       </c>
@@ -4119,11 +4533,14 @@
       <c r="C134" t="s">
         <v>140</v>
       </c>
-      <c r="D134">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D134" t="s">
+        <v>609</v>
+      </c>
+      <c r="E134" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>273</v>
       </c>
@@ -4133,11 +4550,14 @@
       <c r="C135" t="s">
         <v>140</v>
       </c>
-      <c r="D135">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D135" t="s">
+        <v>609</v>
+      </c>
+      <c r="E135" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>275</v>
       </c>
@@ -4147,11 +4567,14 @@
       <c r="C136" t="s">
         <v>71</v>
       </c>
-      <c r="D136">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D136" t="s">
+        <v>610</v>
+      </c>
+      <c r="E136" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>277</v>
       </c>
@@ -4161,11 +4584,14 @@
       <c r="C137" t="s">
         <v>71</v>
       </c>
-      <c r="D137">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D137" t="s">
+        <v>610</v>
+      </c>
+      <c r="E137" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>279</v>
       </c>
@@ -4175,11 +4601,14 @@
       <c r="C138" t="s">
         <v>71</v>
       </c>
-      <c r="D138">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D138" t="s">
+        <v>610</v>
+      </c>
+      <c r="E138" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>281</v>
       </c>
@@ -4189,11 +4618,14 @@
       <c r="C139" t="s">
         <v>71</v>
       </c>
-      <c r="D139">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D139" t="s">
+        <v>610</v>
+      </c>
+      <c r="E139" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>283</v>
       </c>
@@ -4203,11 +4635,14 @@
       <c r="C140" t="s">
         <v>71</v>
       </c>
-      <c r="D140">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D140" t="s">
+        <v>610</v>
+      </c>
+      <c r="E140" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>285</v>
       </c>
@@ -4217,11 +4652,14 @@
       <c r="C141" t="s">
         <v>71</v>
       </c>
-      <c r="D141">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D141" t="s">
+        <v>610</v>
+      </c>
+      <c r="E141" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>287</v>
       </c>
@@ -4231,11 +4669,14 @@
       <c r="C142" t="s">
         <v>71</v>
       </c>
-      <c r="D142">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D142" t="s">
+        <v>610</v>
+      </c>
+      <c r="E142" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>289</v>
       </c>
@@ -4245,11 +4686,14 @@
       <c r="C143" t="s">
         <v>71</v>
       </c>
-      <c r="D143">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D143" t="s">
+        <v>610</v>
+      </c>
+      <c r="E143" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>291</v>
       </c>
@@ -4259,11 +4703,14 @@
       <c r="C144" t="s">
         <v>71</v>
       </c>
-      <c r="D144">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D144" t="s">
+        <v>610</v>
+      </c>
+      <c r="E144" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>293</v>
       </c>
@@ -4273,11 +4720,14 @@
       <c r="C145" t="s">
         <v>71</v>
       </c>
-      <c r="D145">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D145" t="s">
+        <v>610</v>
+      </c>
+      <c r="E145" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>295</v>
       </c>
@@ -4287,11 +4737,14 @@
       <c r="C146" t="s">
         <v>71</v>
       </c>
-      <c r="D146">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D146" t="s">
+        <v>610</v>
+      </c>
+      <c r="E146" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>297</v>
       </c>
@@ -4301,11 +4754,14 @@
       <c r="C147" t="s">
         <v>71</v>
       </c>
-      <c r="D147">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D147" t="s">
+        <v>610</v>
+      </c>
+      <c r="E147" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>299</v>
       </c>
@@ -4315,11 +4771,14 @@
       <c r="C148" t="s">
         <v>71</v>
       </c>
-      <c r="D148">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D148" t="s">
+        <v>610</v>
+      </c>
+      <c r="E148" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>301</v>
       </c>
@@ -4329,11 +4788,14 @@
       <c r="C149" t="s">
         <v>71</v>
       </c>
-      <c r="D149">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D149" t="s">
+        <v>610</v>
+      </c>
+      <c r="E149" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>303</v>
       </c>
@@ -4343,11 +4805,14 @@
       <c r="C150" t="s">
         <v>71</v>
       </c>
-      <c r="D150">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D150" t="s">
+        <v>610</v>
+      </c>
+      <c r="E150" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>305</v>
       </c>
@@ -4357,11 +4822,14 @@
       <c r="C151" t="s">
         <v>71</v>
       </c>
-      <c r="D151">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D151" t="s">
+        <v>610</v>
+      </c>
+      <c r="E151" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>307</v>
       </c>
@@ -4371,11 +4839,14 @@
       <c r="C152" t="s">
         <v>71</v>
       </c>
-      <c r="D152">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D152" t="s">
+        <v>610</v>
+      </c>
+      <c r="E152" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>309</v>
       </c>
@@ -4385,11 +4856,14 @@
       <c r="C153" t="s">
         <v>71</v>
       </c>
-      <c r="D153">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D153" t="s">
+        <v>610</v>
+      </c>
+      <c r="E153" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>311</v>
       </c>
@@ -4399,11 +4873,14 @@
       <c r="C154" t="s">
         <v>71</v>
       </c>
-      <c r="D154">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D154" t="s">
+        <v>610</v>
+      </c>
+      <c r="E154" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>313</v>
       </c>
@@ -4413,11 +4890,14 @@
       <c r="C155" t="s">
         <v>71</v>
       </c>
-      <c r="D155">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D155" t="s">
+        <v>610</v>
+      </c>
+      <c r="E155" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>315</v>
       </c>
@@ -4427,11 +4907,14 @@
       <c r="C156" t="s">
         <v>71</v>
       </c>
-      <c r="D156">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D156" t="s">
+        <v>610</v>
+      </c>
+      <c r="E156" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>317</v>
       </c>
@@ -4441,11 +4924,14 @@
       <c r="C157" t="s">
         <v>71</v>
       </c>
-      <c r="D157">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D157" t="s">
+        <v>610</v>
+      </c>
+      <c r="E157" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>319</v>
       </c>
@@ -4455,11 +4941,14 @@
       <c r="C158" t="s">
         <v>71</v>
       </c>
-      <c r="D158">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D158" t="s">
+        <v>610</v>
+      </c>
+      <c r="E158" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>321</v>
       </c>
@@ -4469,11 +4958,14 @@
       <c r="C159" t="s">
         <v>71</v>
       </c>
-      <c r="D159">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D159" t="s">
+        <v>610</v>
+      </c>
+      <c r="E159" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>323</v>
       </c>
@@ -4483,11 +4975,14 @@
       <c r="C160" t="s">
         <v>71</v>
       </c>
-      <c r="D160">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D160" t="s">
+        <v>610</v>
+      </c>
+      <c r="E160" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>325</v>
       </c>
@@ -4497,11 +4992,14 @@
       <c r="C161" t="s">
         <v>71</v>
       </c>
-      <c r="D161">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D161" t="s">
+        <v>610</v>
+      </c>
+      <c r="E161" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>327</v>
       </c>
@@ -4511,11 +5009,14 @@
       <c r="C162" t="s">
         <v>71</v>
       </c>
-      <c r="D162">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D162" t="s">
+        <v>610</v>
+      </c>
+      <c r="E162" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>329</v>
       </c>
@@ -4525,11 +5026,14 @@
       <c r="C163" t="s">
         <v>71</v>
       </c>
-      <c r="D163">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D163" t="s">
+        <v>610</v>
+      </c>
+      <c r="E163" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>331</v>
       </c>
@@ -4539,11 +5043,14 @@
       <c r="C164" t="s">
         <v>71</v>
       </c>
-      <c r="D164">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D164" t="s">
+        <v>610</v>
+      </c>
+      <c r="E164" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>333</v>
       </c>
@@ -4553,11 +5060,14 @@
       <c r="C165" t="s">
         <v>71</v>
       </c>
-      <c r="D165">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D165" t="s">
+        <v>610</v>
+      </c>
+      <c r="E165" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>335</v>
       </c>
@@ -4567,11 +5077,14 @@
       <c r="C166" t="s">
         <v>71</v>
       </c>
-      <c r="D166">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D166" t="s">
+        <v>610</v>
+      </c>
+      <c r="E166" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>337</v>
       </c>
@@ -4581,11 +5094,14 @@
       <c r="C167" t="s">
         <v>71</v>
       </c>
-      <c r="D167">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D167" t="s">
+        <v>610</v>
+      </c>
+      <c r="E167" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>339</v>
       </c>
@@ -4595,11 +5111,14 @@
       <c r="C168" t="s">
         <v>71</v>
       </c>
-      <c r="D168">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D168" t="s">
+        <v>610</v>
+      </c>
+      <c r="E168" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>341</v>
       </c>
@@ -4609,11 +5128,14 @@
       <c r="C169" t="s">
         <v>6</v>
       </c>
-      <c r="D169">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D169" t="s">
+        <v>611</v>
+      </c>
+      <c r="E169" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>343</v>
       </c>
@@ -4623,11 +5145,14 @@
       <c r="C170" t="s">
         <v>6</v>
       </c>
-      <c r="D170">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D170" t="s">
+        <v>611</v>
+      </c>
+      <c r="E170" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>345</v>
       </c>
@@ -4637,11 +5162,14 @@
       <c r="C171" t="s">
         <v>6</v>
       </c>
-      <c r="D171">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D171" t="s">
+        <v>611</v>
+      </c>
+      <c r="E171" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>347</v>
       </c>
@@ -4651,11 +5179,14 @@
       <c r="C172" t="s">
         <v>6</v>
       </c>
-      <c r="D172">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D172" t="s">
+        <v>611</v>
+      </c>
+      <c r="E172" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>349</v>
       </c>
@@ -4665,11 +5196,14 @@
       <c r="C173" t="s">
         <v>6</v>
       </c>
-      <c r="D173">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D173" t="s">
+        <v>611</v>
+      </c>
+      <c r="E173" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>351</v>
       </c>
@@ -4679,11 +5213,14 @@
       <c r="C174" t="s">
         <v>6</v>
       </c>
-      <c r="D174">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D174" t="s">
+        <v>611</v>
+      </c>
+      <c r="E174" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>353</v>
       </c>
@@ -4693,11 +5230,14 @@
       <c r="C175" t="s">
         <v>6</v>
       </c>
-      <c r="D175">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D175" t="s">
+        <v>611</v>
+      </c>
+      <c r="E175" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>355</v>
       </c>
@@ -4707,11 +5247,14 @@
       <c r="C176" t="s">
         <v>6</v>
       </c>
-      <c r="D176">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D176" t="s">
+        <v>611</v>
+      </c>
+      <c r="E176" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>357</v>
       </c>
@@ -4721,11 +5264,14 @@
       <c r="C177" t="s">
         <v>6</v>
       </c>
-      <c r="D177">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D177" t="s">
+        <v>611</v>
+      </c>
+      <c r="E177" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>359</v>
       </c>
@@ -4735,11 +5281,14 @@
       <c r="C178" t="s">
         <v>6</v>
       </c>
-      <c r="D178">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D178" t="s">
+        <v>611</v>
+      </c>
+      <c r="E178" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>361</v>
       </c>
@@ -4749,11 +5298,14 @@
       <c r="C179" t="s">
         <v>6</v>
       </c>
-      <c r="D179">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D179" t="s">
+        <v>611</v>
+      </c>
+      <c r="E179" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>363</v>
       </c>
@@ -4763,11 +5315,14 @@
       <c r="C180" t="s">
         <v>6</v>
       </c>
-      <c r="D180">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D180" t="s">
+        <v>611</v>
+      </c>
+      <c r="E180" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>365</v>
       </c>
@@ -4777,11 +5332,14 @@
       <c r="C181" t="s">
         <v>6</v>
       </c>
-      <c r="D181">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D181" t="s">
+        <v>611</v>
+      </c>
+      <c r="E181" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>367</v>
       </c>
@@ -4791,11 +5349,14 @@
       <c r="C182" t="s">
         <v>6</v>
       </c>
-      <c r="D182">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D182" t="s">
+        <v>611</v>
+      </c>
+      <c r="E182" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>369</v>
       </c>
@@ -4805,11 +5366,14 @@
       <c r="C183" t="s">
         <v>6</v>
       </c>
-      <c r="D183">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D183" t="s">
+        <v>611</v>
+      </c>
+      <c r="E183" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>371</v>
       </c>
@@ -4819,11 +5383,14 @@
       <c r="C184" t="s">
         <v>6</v>
       </c>
-      <c r="D184">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D184" t="s">
+        <v>611</v>
+      </c>
+      <c r="E184" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>373</v>
       </c>
@@ -4833,11 +5400,14 @@
       <c r="C185" t="s">
         <v>6</v>
       </c>
-      <c r="D185">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D185" t="s">
+        <v>611</v>
+      </c>
+      <c r="E185" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>375</v>
       </c>
@@ -4847,11 +5417,14 @@
       <c r="C186" t="s">
         <v>6</v>
       </c>
-      <c r="D186">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D186" t="s">
+        <v>611</v>
+      </c>
+      <c r="E186" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>377</v>
       </c>
@@ -4861,11 +5434,14 @@
       <c r="C187" t="s">
         <v>6</v>
       </c>
-      <c r="D187">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D187" t="s">
+        <v>611</v>
+      </c>
+      <c r="E187" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>379</v>
       </c>
@@ -4875,11 +5451,14 @@
       <c r="C188" t="s">
         <v>6</v>
       </c>
-      <c r="D188">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D188" t="s">
+        <v>611</v>
+      </c>
+      <c r="E188" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>381</v>
       </c>
@@ -4889,11 +5468,14 @@
       <c r="C189" t="s">
         <v>6</v>
       </c>
-      <c r="D189">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D189" t="s">
+        <v>611</v>
+      </c>
+      <c r="E189" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>383</v>
       </c>
@@ -4903,11 +5485,14 @@
       <c r="C190" t="s">
         <v>6</v>
       </c>
-      <c r="D190">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D190" t="s">
+        <v>611</v>
+      </c>
+      <c r="E190" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>385</v>
       </c>
@@ -4917,11 +5502,14 @@
       <c r="C191" t="s">
         <v>6</v>
       </c>
-      <c r="D191">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D191" t="s">
+        <v>611</v>
+      </c>
+      <c r="E191" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>387</v>
       </c>
@@ -4931,11 +5519,14 @@
       <c r="C192" t="s">
         <v>6</v>
       </c>
-      <c r="D192">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D192" t="s">
+        <v>611</v>
+      </c>
+      <c r="E192" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>389</v>
       </c>
@@ -4945,11 +5536,14 @@
       <c r="C193" t="s">
         <v>6</v>
       </c>
-      <c r="D193">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D193" t="s">
+        <v>611</v>
+      </c>
+      <c r="E193" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>391</v>
       </c>
@@ -4959,11 +5553,14 @@
       <c r="C194" t="s">
         <v>6</v>
       </c>
-      <c r="D194">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D194" t="s">
+        <v>611</v>
+      </c>
+      <c r="E194" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>393</v>
       </c>
@@ -4973,11 +5570,14 @@
       <c r="C195" t="s">
         <v>6</v>
       </c>
-      <c r="D195">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D195" t="s">
+        <v>611</v>
+      </c>
+      <c r="E195" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>395</v>
       </c>
@@ -4987,11 +5587,14 @@
       <c r="C196" t="s">
         <v>6</v>
       </c>
-      <c r="D196">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D196" t="s">
+        <v>611</v>
+      </c>
+      <c r="E196" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>397</v>
       </c>
@@ -5001,11 +5604,14 @@
       <c r="C197" t="s">
         <v>6</v>
       </c>
-      <c r="D197">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D197" t="s">
+        <v>611</v>
+      </c>
+      <c r="E197" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>399</v>
       </c>
@@ -5015,11 +5621,14 @@
       <c r="C198" t="s">
         <v>6</v>
       </c>
-      <c r="D198">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D198" t="s">
+        <v>611</v>
+      </c>
+      <c r="E198" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>401</v>
       </c>
@@ -5029,11 +5638,14 @@
       <c r="C199" t="s">
         <v>6</v>
       </c>
-      <c r="D199">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D199" t="s">
+        <v>611</v>
+      </c>
+      <c r="E199" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>403</v>
       </c>
@@ -5043,11 +5655,14 @@
       <c r="C200" t="s">
         <v>6</v>
       </c>
-      <c r="D200">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D200" t="s">
+        <v>611</v>
+      </c>
+      <c r="E200" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>405</v>
       </c>
@@ -5057,11 +5672,14 @@
       <c r="C201" t="s">
         <v>6</v>
       </c>
-      <c r="D201">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D201" t="s">
+        <v>611</v>
+      </c>
+      <c r="E201" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>407</v>
       </c>
@@ -5071,11 +5689,14 @@
       <c r="C202" t="s">
         <v>140</v>
       </c>
-      <c r="D202" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D202" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E202" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>409</v>
       </c>
@@ -5085,11 +5706,14 @@
       <c r="C203" t="s">
         <v>140</v>
       </c>
-      <c r="D203" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D203" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E203" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>411</v>
       </c>
@@ -5099,11 +5723,14 @@
       <c r="C204" t="s">
         <v>140</v>
       </c>
-      <c r="D204" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D204" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E204" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>413</v>
       </c>
@@ -5113,11 +5740,14 @@
       <c r="C205" t="s">
         <v>140</v>
       </c>
-      <c r="D205" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D205" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E205" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>415</v>
       </c>
@@ -5127,11 +5757,14 @@
       <c r="C206" t="s">
         <v>140</v>
       </c>
-      <c r="D206" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D206" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E206" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>417</v>
       </c>
@@ -5141,11 +5774,14 @@
       <c r="C207" t="s">
         <v>140</v>
       </c>
-      <c r="D207" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D207" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E207" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>419</v>
       </c>
@@ -5155,11 +5791,14 @@
       <c r="C208" t="s">
         <v>140</v>
       </c>
-      <c r="D208" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D208" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E208" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>421</v>
       </c>
@@ -5169,11 +5808,14 @@
       <c r="C209" t="s">
         <v>140</v>
       </c>
-      <c r="D209" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D209" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E209" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>423</v>
       </c>
@@ -5183,11 +5825,14 @@
       <c r="C210" t="s">
         <v>140</v>
       </c>
-      <c r="D210" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D210" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E210" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>425</v>
       </c>
@@ -5197,11 +5842,14 @@
       <c r="C211" t="s">
         <v>140</v>
       </c>
-      <c r="D211" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D211" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E211" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>427</v>
       </c>
@@ -5211,11 +5859,14 @@
       <c r="C212" t="s">
         <v>140</v>
       </c>
-      <c r="D212" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D212" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E212" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>429</v>
       </c>
@@ -5225,11 +5876,14 @@
       <c r="C213" t="s">
         <v>140</v>
       </c>
-      <c r="D213" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D213" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E213" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>431</v>
       </c>
@@ -5239,11 +5893,14 @@
       <c r="C214" t="s">
         <v>140</v>
       </c>
-      <c r="D214" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D214" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E214" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>433</v>
       </c>
@@ -5253,11 +5910,14 @@
       <c r="C215" t="s">
         <v>140</v>
       </c>
-      <c r="D215" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D215" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E215" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>435</v>
       </c>
@@ -5267,11 +5927,14 @@
       <c r="C216" t="s">
         <v>140</v>
       </c>
-      <c r="D216" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D216" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E216" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>437</v>
       </c>
@@ -5281,11 +5944,14 @@
       <c r="C217" t="s">
         <v>140</v>
       </c>
-      <c r="D217" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D217" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E217" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>439</v>
       </c>
@@ -5295,11 +5961,14 @@
       <c r="C218" t="s">
         <v>140</v>
       </c>
-      <c r="D218" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D218" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E218" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>441</v>
       </c>
@@ -5309,11 +5978,14 @@
       <c r="C219" t="s">
         <v>140</v>
       </c>
-      <c r="D219" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D219" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E219" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>443</v>
       </c>
@@ -5323,11 +5995,14 @@
       <c r="C220" t="s">
         <v>140</v>
       </c>
-      <c r="D220" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D220" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E220" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>445</v>
       </c>
@@ -5337,11 +6012,14 @@
       <c r="C221" t="s">
         <v>140</v>
       </c>
-      <c r="D221" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D221" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E221" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>447</v>
       </c>
@@ -5351,11 +6029,14 @@
       <c r="C222" t="s">
         <v>140</v>
       </c>
-      <c r="D222" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D222" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E222" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>449</v>
       </c>
@@ -5365,11 +6046,14 @@
       <c r="C223" t="s">
         <v>140</v>
       </c>
-      <c r="D223" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D223" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E223" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>451</v>
       </c>
@@ -5379,11 +6063,14 @@
       <c r="C224" t="s">
         <v>140</v>
       </c>
-      <c r="D224" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D224" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E224" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>453</v>
       </c>
@@ -5393,11 +6080,14 @@
       <c r="C225" t="s">
         <v>140</v>
       </c>
-      <c r="D225" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D225" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E225" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>455</v>
       </c>
@@ -5407,11 +6097,14 @@
       <c r="C226" t="s">
         <v>140</v>
       </c>
-      <c r="D226" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D226" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E226" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>457</v>
       </c>
@@ -5421,11 +6114,14 @@
       <c r="C227" t="s">
         <v>140</v>
       </c>
-      <c r="D227" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D227" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E227" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>459</v>
       </c>
@@ -5435,11 +6131,14 @@
       <c r="C228" t="s">
         <v>140</v>
       </c>
-      <c r="D228" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D228" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E228" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>461</v>
       </c>
@@ -5449,11 +6148,14 @@
       <c r="C229" t="s">
         <v>140</v>
       </c>
-      <c r="D229" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D229" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E229" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>463</v>
       </c>
@@ -5463,11 +6165,14 @@
       <c r="C230" t="s">
         <v>140</v>
       </c>
-      <c r="D230" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D230" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E230" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>465</v>
       </c>
@@ -5477,11 +6182,14 @@
       <c r="C231" t="s">
         <v>140</v>
       </c>
-      <c r="D231" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D231" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E231" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>467</v>
       </c>
@@ -5491,11 +6199,14 @@
       <c r="C232" t="s">
         <v>140</v>
       </c>
-      <c r="D232" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D232" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E232" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>469</v>
       </c>
@@ -5505,11 +6216,14 @@
       <c r="C233" t="s">
         <v>140</v>
       </c>
-      <c r="D233" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D233" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E233" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>471</v>
       </c>
@@ -5519,11 +6233,14 @@
       <c r="C234" t="s">
         <v>140</v>
       </c>
-      <c r="D234" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D234" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E234" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>473</v>
       </c>
@@ -5533,11 +6250,14 @@
       <c r="C235" t="s">
         <v>6</v>
       </c>
-      <c r="D235" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D235" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E235" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>475</v>
       </c>
@@ -5547,11 +6267,14 @@
       <c r="C236" t="s">
         <v>6</v>
       </c>
-      <c r="D236" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D236" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E236" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>477</v>
       </c>
@@ -5561,11 +6284,14 @@
       <c r="C237" t="s">
         <v>6</v>
       </c>
-      <c r="D237" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D237" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E237" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>479</v>
       </c>
@@ -5575,11 +6301,14 @@
       <c r="C238" t="s">
         <v>6</v>
       </c>
-      <c r="D238" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D238" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E238" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>481</v>
       </c>
@@ -5589,11 +6318,14 @@
       <c r="C239" t="s">
         <v>6</v>
       </c>
-      <c r="D239" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D239" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E239" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>483</v>
       </c>
@@ -5603,11 +6335,14 @@
       <c r="C240" t="s">
         <v>6</v>
       </c>
-      <c r="D240" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D240" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E240" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>485</v>
       </c>
@@ -5617,11 +6352,14 @@
       <c r="C241" t="s">
         <v>6</v>
       </c>
-      <c r="D241" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D241" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E241" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>487</v>
       </c>
@@ -5631,11 +6369,14 @@
       <c r="C242" t="s">
         <v>6</v>
       </c>
-      <c r="D242" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D242" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E242" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>489</v>
       </c>
@@ -5645,11 +6386,14 @@
       <c r="C243" t="s">
         <v>6</v>
       </c>
-      <c r="D243" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D243" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E243" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>491</v>
       </c>
@@ -5659,11 +6403,14 @@
       <c r="C244" t="s">
         <v>6</v>
       </c>
-      <c r="D244" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D244" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E244" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>493</v>
       </c>
@@ -5673,11 +6420,14 @@
       <c r="C245" t="s">
         <v>6</v>
       </c>
-      <c r="D245" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D245" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E245" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>495</v>
       </c>
@@ -5687,11 +6437,14 @@
       <c r="C246" t="s">
         <v>6</v>
       </c>
-      <c r="D246" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D246" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E246" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>497</v>
       </c>
@@ -5701,11 +6454,14 @@
       <c r="C247" t="s">
         <v>6</v>
       </c>
-      <c r="D247" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D247" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E247" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>499</v>
       </c>
@@ -5715,11 +6471,14 @@
       <c r="C248" t="s">
         <v>6</v>
       </c>
-      <c r="D248" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D248" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E248" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>501</v>
       </c>
@@ -5729,11 +6488,14 @@
       <c r="C249" t="s">
         <v>6</v>
       </c>
-      <c r="D249" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D249" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E249" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>503</v>
       </c>
@@ -5743,11 +6505,14 @@
       <c r="C250" t="s">
         <v>6</v>
       </c>
-      <c r="D250" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D250" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E250" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>505</v>
       </c>
@@ -5757,11 +6522,14 @@
       <c r="C251" t="s">
         <v>6</v>
       </c>
-      <c r="D251" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D251" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E251" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>507</v>
       </c>
@@ -5771,11 +6539,14 @@
       <c r="C252" t="s">
         <v>6</v>
       </c>
-      <c r="D252" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D252" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E252" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>509</v>
       </c>
@@ -5785,11 +6556,14 @@
       <c r="C253" t="s">
         <v>6</v>
       </c>
-      <c r="D253" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D253" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E253" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>511</v>
       </c>
@@ -5799,11 +6573,14 @@
       <c r="C254" t="s">
         <v>6</v>
       </c>
-      <c r="D254" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D254" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E254" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>513</v>
       </c>
@@ -5813,11 +6590,14 @@
       <c r="C255" t="s">
         <v>6</v>
       </c>
-      <c r="D255" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D255" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E255" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>515</v>
       </c>
@@ -5827,11 +6607,14 @@
       <c r="C256" t="s">
         <v>6</v>
       </c>
-      <c r="D256" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D256" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E256" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>517</v>
       </c>
@@ -5841,11 +6624,14 @@
       <c r="C257" t="s">
         <v>6</v>
       </c>
-      <c r="D257" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D257" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E257" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>519</v>
       </c>
@@ -5855,11 +6641,14 @@
       <c r="C258" t="s">
         <v>6</v>
       </c>
-      <c r="D258" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D258" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E258" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>521</v>
       </c>
@@ -5869,11 +6658,14 @@
       <c r="C259" t="s">
         <v>6</v>
       </c>
-      <c r="D259" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D259" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E259" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>523</v>
       </c>
@@ -5883,11 +6675,14 @@
       <c r="C260" t="s">
         <v>6</v>
       </c>
-      <c r="D260" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D260" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E260" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>525</v>
       </c>
@@ -5897,11 +6692,14 @@
       <c r="C261" t="s">
         <v>6</v>
       </c>
-      <c r="D261" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D261" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E261" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>527</v>
       </c>
@@ -5911,11 +6709,14 @@
       <c r="C262" t="s">
         <v>6</v>
       </c>
-      <c r="D262" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D262" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E262" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>529</v>
       </c>
@@ -5925,11 +6726,14 @@
       <c r="C263" t="s">
         <v>6</v>
       </c>
-      <c r="D263" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D263" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E263" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>531</v>
       </c>
@@ -5939,11 +6743,14 @@
       <c r="C264" t="s">
         <v>6</v>
       </c>
-      <c r="D264" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D264" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E264" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>533</v>
       </c>
@@ -5953,11 +6760,14 @@
       <c r="C265" t="s">
         <v>6</v>
       </c>
-      <c r="D265" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D265" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E265" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>535</v>
       </c>
@@ -5967,11 +6777,14 @@
       <c r="C266" t="s">
         <v>6</v>
       </c>
-      <c r="D266" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D266" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E266" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>537</v>
       </c>
@@ -5981,11 +6794,14 @@
       <c r="C267" t="s">
         <v>6</v>
       </c>
-      <c r="D267" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D267" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E267" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>539</v>
       </c>
@@ -5995,11 +6811,14 @@
       <c r="C268" t="s">
         <v>71</v>
       </c>
-      <c r="D268" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D268" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E268" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>541</v>
       </c>
@@ -6009,11 +6828,14 @@
       <c r="C269" t="s">
         <v>71</v>
       </c>
-      <c r="D269" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D269" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E269" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>543</v>
       </c>
@@ -6023,11 +6845,14 @@
       <c r="C270" t="s">
         <v>71</v>
       </c>
-      <c r="D270" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D270" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E270" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>545</v>
       </c>
@@ -6037,11 +6862,14 @@
       <c r="C271" t="s">
         <v>71</v>
       </c>
-      <c r="D271" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D271" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E271" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>547</v>
       </c>
@@ -6051,11 +6879,14 @@
       <c r="C272" t="s">
         <v>71</v>
       </c>
-      <c r="D272" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D272" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E272" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>549</v>
       </c>
@@ -6065,11 +6896,14 @@
       <c r="C273" t="s">
         <v>71</v>
       </c>
-      <c r="D273" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D273" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E273" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>551</v>
       </c>
@@ -6079,11 +6913,14 @@
       <c r="C274" t="s">
         <v>71</v>
       </c>
-      <c r="D274" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D274" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E274" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>553</v>
       </c>
@@ -6093,11 +6930,14 @@
       <c r="C275" t="s">
         <v>71</v>
       </c>
-      <c r="D275" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D275" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E275" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>555</v>
       </c>
@@ -6107,11 +6947,14 @@
       <c r="C276" t="s">
         <v>71</v>
       </c>
-      <c r="D276" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D276" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E276" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>557</v>
       </c>
@@ -6121,11 +6964,14 @@
       <c r="C277" t="s">
         <v>71</v>
       </c>
-      <c r="D277" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D277" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E277" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>559</v>
       </c>
@@ -6135,11 +6981,14 @@
       <c r="C278" t="s">
         <v>71</v>
       </c>
-      <c r="D278" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D278" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E278" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>561</v>
       </c>
@@ -6149,11 +6998,14 @@
       <c r="C279" t="s">
         <v>71</v>
       </c>
-      <c r="D279" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D279" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E279" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>563</v>
       </c>
@@ -6163,11 +7015,14 @@
       <c r="C280" t="s">
         <v>71</v>
       </c>
-      <c r="D280" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D280" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E280" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>564</v>
       </c>
@@ -6177,11 +7032,14 @@
       <c r="C281" t="s">
         <v>71</v>
       </c>
-      <c r="D281" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D281" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E281" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>566</v>
       </c>
@@ -6191,11 +7049,14 @@
       <c r="C282" t="s">
         <v>71</v>
       </c>
-      <c r="D282" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D282" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E282" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>568</v>
       </c>
@@ -6205,11 +7066,14 @@
       <c r="C283" t="s">
         <v>71</v>
       </c>
-      <c r="D283" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D283" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E283" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>570</v>
       </c>
@@ -6219,11 +7083,14 @@
       <c r="C284" t="s">
         <v>71</v>
       </c>
-      <c r="D284" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D284" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E284" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>572</v>
       </c>
@@ -6233,11 +7100,14 @@
       <c r="C285" t="s">
         <v>71</v>
       </c>
-      <c r="D285" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D285" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E285" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>574</v>
       </c>
@@ -6247,11 +7117,14 @@
       <c r="C286" t="s">
         <v>71</v>
       </c>
-      <c r="D286" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D286" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E286" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>576</v>
       </c>
@@ -6261,11 +7134,14 @@
       <c r="C287" t="s">
         <v>71</v>
       </c>
-      <c r="D287" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D287" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E287" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>578</v>
       </c>
@@ -6275,11 +7151,14 @@
       <c r="C288" t="s">
         <v>71</v>
       </c>
-      <c r="D288" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D288" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E288" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>580</v>
       </c>
@@ -6289,11 +7168,14 @@
       <c r="C289" t="s">
         <v>71</v>
       </c>
-      <c r="D289" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D289" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E289" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>582</v>
       </c>
@@ -6303,11 +7185,14 @@
       <c r="C290" t="s">
         <v>71</v>
       </c>
-      <c r="D290" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D290" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E290" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>584</v>
       </c>
@@ -6317,11 +7202,14 @@
       <c r="C291" t="s">
         <v>71</v>
       </c>
-      <c r="D291" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D291" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E291" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>586</v>
       </c>
@@ -6331,11 +7219,14 @@
       <c r="C292" t="s">
         <v>71</v>
       </c>
-      <c r="D292" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D292" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E292" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>588</v>
       </c>
@@ -6345,11 +7236,14 @@
       <c r="C293" t="s">
         <v>71</v>
       </c>
-      <c r="D293" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D293" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E293" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>590</v>
       </c>
@@ -6359,11 +7253,14 @@
       <c r="C294" t="s">
         <v>71</v>
       </c>
-      <c r="D294" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D294" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E294" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>592</v>
       </c>
@@ -6373,11 +7270,14 @@
       <c r="C295" t="s">
         <v>71</v>
       </c>
-      <c r="D295" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D295" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E295" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>594</v>
       </c>
@@ -6387,11 +7287,14 @@
       <c r="C296" t="s">
         <v>71</v>
       </c>
-      <c r="D296" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D296" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E296" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>596</v>
       </c>
@@ -6401,11 +7304,14 @@
       <c r="C297" t="s">
         <v>71</v>
       </c>
-      <c r="D297" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D297" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E297" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>598</v>
       </c>
@@ -6415,11 +7321,14 @@
       <c r="C298" t="s">
         <v>71</v>
       </c>
-      <c r="D298" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D298" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E298" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>600</v>
       </c>
@@ -6429,11 +7338,14 @@
       <c r="C299" t="s">
         <v>71</v>
       </c>
-      <c r="D299" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D299" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E299" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>602</v>
       </c>
@@ -6443,11 +7355,14 @@
       <c r="C300" t="s">
         <v>71</v>
       </c>
-      <c r="D300" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D300" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E300" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>604</v>
       </c>
@@ -6457,8 +7372,11 @@
       <c r="C301" t="s">
         <v>71</v>
       </c>
-      <c r="D301" s="1">
-        <v>4</v>
+      <c r="D301" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E301" t="s">
+        <v>608</v>
       </c>
     </row>
   </sheetData>
